--- a/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\Desktop\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7442701-646D-4BC7-930E-83D5347DAB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DD677-B622-4768-8B56-84A833B25BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2310" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cel Annoted</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>http://dbpedia.org/ontology/conservationStatusSystem</t>
+  </si>
+  <si>
+    <t>F1_Score</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(2*B9*B10)/(B9+B10)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DD677-B622-4768-8B56-84A833B25BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68468750-8FC1-4983-9F97-4451C1497DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Cel Annoted</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>F1_Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://dbpedia.org/ontology/conservationStatus</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "0" "4" http://dbpedia.org/ontology/genus</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,28 +559,42 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="B7">
-        <f>SUM(B3:B6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f>SUM(C3:C6)</f>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7">
-        <f>SUM(E3:E6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E3:E7)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <f>C7/B7</f>
+        <f>C8/B8</f>
         <v>1</v>
       </c>
     </row>
@@ -583,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <f>C7/E7</f>
+        <f>C8/E8</f>
         <v>1</v>
       </c>
     </row>

--- a/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset2-CPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68468750-8FC1-4983-9F97-4451C1497DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BCD56-22E6-454B-8AAD-EF2EFC80409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cel Annoted</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Target Cell</t>
   </si>
   <si>
+    <t>SemTab Round 2 - 211.csv &amp; 212.csv</t>
+  </si>
+  <si>
     <t>File name - column - row - URI</t>
   </si>
   <si>
@@ -55,40 +58,31 @@
     <t>Value Target Annoted</t>
   </si>
   <si>
-    <t xml:space="preserve">ResultatDataset1 "0" "1" URI: http://dbpedia.org/ontology/family </t>
-  </si>
-  <si>
-    <t>http://dbpedia.org/ontology/conservationStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultatDataset1 "0" "1" URI: http://dbpedia.org/ontology/species </t>
-  </si>
-  <si>
-    <t>ResultatDataset1 "0" "2" URI: http://dbpedia.org/ontology/conservationStatusSystem</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 "0" "3" http://dbpedia.org/ontology/conservationStatus</t>
-  </si>
-  <si>
-    <t>SemTab Round 2 - 274.csv &amp; 275.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dbpedia.org/ontology/family </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dbpedia.org/ontology/species </t>
-  </si>
-  <si>
-    <t>http://dbpedia.org/ontology/conservationStatusSystem</t>
+    <t>ResultatDataset1 "0" "1" URI: http://dbpedia.org/ontology/president</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "1" "1" URI: http://dbpedia.org/ontology/staff</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/president</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/facultySize</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/staff</t>
   </si>
   <si>
     <t>F1_Score</t>
   </si>
   <si>
-    <t xml:space="preserve"> http://dbpedia.org/ontology/conservationStatus</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 "0" "4" http://dbpedia.org/ontology/genus</t>
+    <t>ResultatDataset1 "2" "1" URI: http://dbpedia.org/ontology/facultySize</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "1" URI: http://dbpedia.org/ontology/city</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/city</t>
   </si>
 </sst>
 </file>
@@ -450,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,12 +461,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -484,12 +478,12 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -498,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <f>IF(D3 = "nan",0,1)</f>
@@ -516,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f>IF(D4 = "nan",0,1)</f>
@@ -525,7 +519,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -534,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <f>IF(D5 = "nan",0,1)</f>
@@ -543,7 +537,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -552,67 +546,50 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
       <c r="B7">
-        <v>1</v>
+        <f>SUM(B3:B6)</f>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <f>SUM(C3:C6)</f>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f>SUM(E3:E6)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(B3:B7)</f>
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <f>SUM(C3:C7)</f>
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E3:E7)</f>
-        <v>5</v>
+      <c r="B8" s="1">
+        <f>B7/C7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>C8/B8</f>
+        <f>C7/E7</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <f>C8/E8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <f>(2*B9*B10)/(B9+B10)</f>
+        <f>(2*B8*B9)/(B8+B9)</f>
         <v>1</v>
       </c>
     </row>
